--- a/data/trans_camb/P25A_9_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_9_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,41</t>
+          <t>-1,05; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,78</t>
+          <t>-2,48; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,77</t>
+          <t>0,37; 6,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,53</t>
+          <t>-6,85; 1,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,95</t>
+          <t>-5,6; 2,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,21</t>
+          <t>-0,35; 12,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 1,48</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 0,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 8,42</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>157,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-40,32%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,56%</t>
+          <t>481,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>-42,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>-28,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>107,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-25,07%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-37,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>136,58%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,77; 270,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,36; 223,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 69,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 101,43</t>
+          <t>-85,78; 51,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 51,14</t>
+          <t>-75,87; 95,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,91; 63,47</t>
+          <t>-11,46; 443,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-71,52; 92,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-82,28; 65,74</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 460,6</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-1,13</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,13</t>
+          <t>-4,47; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,56</t>
+          <t>-2,02; 2,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,4</t>
+          <t>0,81; 9,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 7,03</t>
+          <t>-6,03; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 0,24</t>
+          <t>-4,63; 3,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,06</t>
+          <t>-1,38; 11,68</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 0,08</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 1,95</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 7,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-80,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-59,23%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-37,22%</t>
+          <t>499,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>-58,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-47,68%</t>
+          <t>-27,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>87,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-65,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-21,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>137,06%</t>
         </is>
       </c>
     </row>
@@ -876,27 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,18; 55,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 196,3</t>
+          <t>-100,0; 80,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 20,82</t>
+          <t>-85,94; 241,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 142,8</t>
+          <t>-41,47; 506,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-93,7; 52,19</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-79,49; 170,15</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-10,76; 506,93</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 3,21</t>
+          <t>-18,55; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 2,65</t>
+          <t>-18,55; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 6,37</t>
+          <t>-18,55; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 8,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,16</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 3,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 0,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 2,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,37%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>171,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-27,98%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-32,48%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 414,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,42</t>
+          <t>-1,82; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,16</t>
+          <t>-2,12; 0,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,83</t>
+          <t>0,36; 5,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,17</t>
+          <t>-4,69; 0,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,18</t>
+          <t>-3,58; 1,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,23</t>
+          <t>0,24; 9,18</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 0,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 0,58</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 5,9</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-43,6%</t>
+          <t>-25,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-51,93%</t>
+          <t>-56,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,74%</t>
+          <t>251,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>-49,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>-22,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-45,78%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-30,91%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>119,93%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 49,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-84,91; 34,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 31,75</t>
+          <t>-22,89; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 97,3</t>
+          <t>-80,11; 14,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 9,22</t>
+          <t>-65,05; 88,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 54,45</t>
+          <t>-1,91; 308,74</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-77,14; 3,48</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-69,16; 30,53</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 308,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
